--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/112.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/112.xlsx
@@ -479,13 +479,13 @@
         <v>-7.933792249525932</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.48387545714623</v>
+        <v>-21.48301010293079</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.01674009421625227</v>
+        <v>-0.01483338153815544</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.821714347351534</v>
+        <v>-8.823137048349807</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-8.144195711995094</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.62912785116227</v>
+        <v>-21.62770026115713</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1411604299723708</v>
+        <v>-0.1395128346582205</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.308109508961518</v>
+        <v>-8.309351316705714</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.318542782026737</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.87436043560673</v>
+        <v>-21.87300129169773</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2872781782038579</v>
+        <v>-0.2860119254253269</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.20024823946364</v>
+        <v>-8.20253140567049</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.41606590038988</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.96503195696053</v>
+        <v>-21.96403459955968</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3117769916139687</v>
+        <v>-0.3113076469547448</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.740710928014837</v>
+        <v>-7.742695864802804</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.418612398588623</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.94622883655038</v>
+        <v>-21.94550037452721</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4508105688952959</v>
+        <v>-0.4500332168034565</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.006978555441975</v>
+        <v>-7.009462170930368</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-8.306894680247767</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.19734289625573</v>
+        <v>-22.19654109912956</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5481409176018387</v>
+        <v>-0.5479746913683636</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.4239449305349</v>
+        <v>-6.426540993181232</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.07202097021586</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.57750718122017</v>
+        <v>-22.57655871388799</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7251082991635591</v>
+        <v>-0.725171856252829</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.013532360084858</v>
+        <v>-6.015698190126901</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.700858122664133</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.82669986122682</v>
+        <v>-22.82605940132726</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.8503255430389848</v>
+        <v>-0.8503939891351215</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.738105269230338</v>
+        <v>-5.74019287516251</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-7.19048696852724</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.30951373436901</v>
+        <v>-23.30929372906</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.9408846172348504</v>
+        <v>-0.9408601722005158</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.454171306427384</v>
+        <v>-5.454870434409353</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-6.553024327513469</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.75499515107543</v>
+        <v>-23.754276467066</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.183002904305079</v>
+        <v>-1.183169130538554</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.133501346026433</v>
+        <v>-5.134674707674493</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.805915461803826</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.23454316763052</v>
+        <v>-24.23415204708117</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.123845921215408</v>
+        <v>-1.124427713032571</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.965138616550483</v>
+        <v>-4.966258199123007</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.971894109967819</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.84951667439915</v>
+        <v>-24.84876376734164</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.049625907968773</v>
+        <v>-1.049518349817701</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.865994446296315</v>
+        <v>-4.867334034177849</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.092993642350487</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.43686240336284</v>
+        <v>-25.43701885158259</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9518506596373406</v>
+        <v>-0.952114666008154</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.747871151384783</v>
+        <v>-4.749611637829404</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-3.207573991129513</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.07741519405917</v>
+        <v>-26.07715607669523</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9172511580401835</v>
+        <v>-0.9170115967037047</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.729884495121403</v>
+        <v>-4.732739675131681</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.348782806830994</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.84040582822709</v>
+        <v>-26.84077005923868</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.838127470906032</v>
+        <v>-0.8376874602880097</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.644013978510909</v>
+        <v>-4.64738739324908</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-1.555979077508918</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.6394822220797</v>
+        <v>-27.63893465331061</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7386752932192481</v>
+        <v>-0.7382157265737581</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.669705709596546</v>
+        <v>-4.67286889703944</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.8557792301903682</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.4809414164616</v>
+        <v>-28.48086319235173</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5906508323096642</v>
+        <v>-0.5904454940212538</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.875948464277354</v>
+        <v>-4.879532106310802</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.2626614405988769</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.1727089985923</v>
+        <v>-29.17212720677513</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.3126814578843479</v>
+        <v>-0.3125934557607434</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.106812257539945</v>
+        <v>-5.110518124745066</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.2078250913736498</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.59370871341265</v>
+        <v>-29.59303891947188</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1313090811355372</v>
+        <v>-0.1310255187372561</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.424837265225895</v>
+        <v>-5.429310706509122</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.551142770305315</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.19991867537233</v>
+        <v>-30.19887976141311</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3136687678635938</v>
+        <v>0.313536764678187</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.703315096365371</v>
+        <v>-5.708248104294087</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.7735556950719</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.73196729216778</v>
+        <v>-30.73078170800256</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3293869249407253</v>
+        <v>0.3290642504875089</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.977260818139216</v>
+        <v>-5.981758704456777</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.8810735820110117</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.09206953745384</v>
+        <v>-31.0906859485105</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6100110300947764</v>
+        <v>0.6098936939299705</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.282545073929986</v>
+        <v>-6.287272743570292</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8852147012353492</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.29277304735443</v>
+        <v>-31.29043121306518</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8166155712837352</v>
+        <v>0.8160582245009069</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.501083680881084</v>
+        <v>-6.505928686686197</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8032090083232061</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.5855634460968</v>
+        <v>-31.58355650877793</v>
       </c>
       <c r="F25" t="n">
-        <v>1.037246673173873</v>
+        <v>1.036625769301775</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.529024355125503</v>
+        <v>-6.533600465552936</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.6492560429445638</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.48650727796623</v>
+        <v>-31.48493546225852</v>
       </c>
       <c r="F26" t="n">
-        <v>1.076358728109193</v>
+        <v>1.075992052594174</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.65393848057518</v>
+        <v>-6.658935045593167</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.4377152473218291</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.57327981634367</v>
+        <v>-31.57201600806858</v>
       </c>
       <c r="F27" t="n">
-        <v>1.327658570075488</v>
+        <v>1.327365229663473</v>
       </c>
       <c r="G27" t="n">
-        <v>-6.936058621830507</v>
+        <v>-6.940600509209871</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.1850162874315263</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.39998407893901</v>
+        <v>-31.3985295993961</v>
       </c>
       <c r="F28" t="n">
-        <v>1.470779357097556</v>
+        <v>1.470290456410865</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.071117436529033</v>
+        <v>-7.075473541647454</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.09793723351330112</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.20594917440489</v>
+        <v>-31.20398379364439</v>
       </c>
       <c r="F29" t="n">
-        <v>1.499394714289609</v>
+        <v>1.498915591616651</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.351761097710551</v>
+        <v>-7.35659632550193</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.4017973243301896</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.06812318181969</v>
+        <v>-31.06696693169566</v>
       </c>
       <c r="F30" t="n">
-        <v>1.606336850496507</v>
+        <v>1.605652389535139</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.377623944036531</v>
+        <v>-7.38252272891718</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-0.7159941737006815</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.80284566922088</v>
+        <v>-30.80185808983376</v>
       </c>
       <c r="F31" t="n">
-        <v>1.552821781331256</v>
+        <v>1.552337769651431</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.370754889388516</v>
+        <v>-7.37556567214556</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.036468061084693</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.40085930210597</v>
+        <v>-30.39920192877808</v>
       </c>
       <c r="F32" t="n">
-        <v>1.505809091299002</v>
+        <v>1.505276189550508</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.392506080939421</v>
+        <v>-7.396827963009773</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.358375829782076</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.90085568081971</v>
+        <v>-29.89986076792229</v>
       </c>
       <c r="F33" t="n">
-        <v>1.479902243911219</v>
+        <v>1.47945734428633</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.653295485234398</v>
+        <v>-7.657783593538225</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-1.674562846579507</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.29776979424798</v>
+        <v>-29.29662332213769</v>
       </c>
       <c r="F34" t="n">
-        <v>1.473179859469211</v>
+        <v>1.472749626864923</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.636589748770149</v>
+        <v>-7.640691625531491</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-1.98455019999036</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.84776360168623</v>
+        <v>-28.84642890281156</v>
       </c>
       <c r="F35" t="n">
-        <v>1.498930258637252</v>
+        <v>1.498514693053564</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.65104165306875</v>
+        <v>-7.654899079486746</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.286060019755353</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.22316119589321</v>
+        <v>-28.22152826759966</v>
       </c>
       <c r="F36" t="n">
-        <v>1.405907124980462</v>
+        <v>1.405618673575314</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.540667434041278</v>
+        <v>-7.543855066518506</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.574204046690217</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.56266614618674</v>
+        <v>-27.56146345049747</v>
       </c>
       <c r="F37" t="n">
-        <v>1.515552881984763</v>
+        <v>1.514883088043996</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.465767848840141</v>
+        <v>-7.468623028850419</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.848660022348958</v>
       </c>
       <c r="E38" t="n">
-        <v>-27.02879637433336</v>
+        <v>-27.02716344603981</v>
       </c>
       <c r="F38" t="n">
-        <v>1.381437645611552</v>
+        <v>1.380777629684519</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.439054315319318</v>
+        <v>-7.442002386460067</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.110019795911596</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.2814823406842</v>
+        <v>-26.27939473475203</v>
       </c>
       <c r="F39" t="n">
-        <v>1.433256229393984</v>
+        <v>1.432737994666091</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.409896278365037</v>
+        <v>-7.412238112654289</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.356080743141153</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.61937391871164</v>
+        <v>-25.6177849914799</v>
       </c>
       <c r="F40" t="n">
-        <v>1.460693335931111</v>
+        <v>1.459818203701933</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.114331368225693</v>
+        <v>-7.116257636931258</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.587007375954118</v>
       </c>
       <c r="E41" t="n">
-        <v>-25.0717562595485</v>
+        <v>-25.06992777098028</v>
       </c>
       <c r="F41" t="n">
-        <v>1.492501214607259</v>
+        <v>1.492105205051039</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.142775610177405</v>
+        <v>-7.144784991999707</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.805593617387862</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.36431207689904</v>
+        <v>-24.36304582412051</v>
       </c>
       <c r="F42" t="n">
-        <v>1.503379254886145</v>
+        <v>1.503066358446662</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.877209646173451</v>
+        <v>-6.879962157039525</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.011116594575089</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.66130711248474</v>
+        <v>-23.66019241891908</v>
       </c>
       <c r="F43" t="n">
-        <v>1.453120264294259</v>
+        <v>1.452587362545765</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.866923175725463</v>
+        <v>-6.868776109328024</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.202121435279888</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.97458254093727</v>
+        <v>-22.97368785268062</v>
       </c>
       <c r="F44" t="n">
-        <v>1.567523024980069</v>
+        <v>1.567131904430716</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.779233948560476</v>
+        <v>-6.782201575728694</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.38214188578336</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.1573752651187</v>
+        <v>-22.15589389603803</v>
       </c>
       <c r="F45" t="n">
-        <v>1.618979822254349</v>
+        <v>1.618627813759931</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.660484860769979</v>
+        <v>-6.662440463516745</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.552335819676801</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.64609270499047</v>
+        <v>-21.64445488769005</v>
       </c>
       <c r="F46" t="n">
-        <v>1.623971498265469</v>
+        <v>1.623722158915256</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.527968329642249</v>
+        <v>-6.529865264306612</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.710656559331368</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.98584210562734</v>
+        <v>-20.98470296702735</v>
       </c>
       <c r="F47" t="n">
-        <v>1.693806072352482</v>
+        <v>1.693351394713859</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.500179214610704</v>
+        <v>-6.502237486501676</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.862517597544069</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.34658979075761</v>
+        <v>-20.34557287732929</v>
       </c>
       <c r="F48" t="n">
-        <v>1.731011414609705</v>
+        <v>1.730473623854344</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.475250168596306</v>
+        <v>-6.478076014565382</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.012601723518351</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.60564124404918</v>
+        <v>-19.60477100082687</v>
       </c>
       <c r="F49" t="n">
-        <v>1.881778608371628</v>
+        <v>1.881485267959613</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.217428391469546</v>
+        <v>-6.220308016514158</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.159222919933633</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.21974215402985</v>
+        <v>-19.21897457995174</v>
       </c>
       <c r="F50" t="n">
-        <v>1.898274117540599</v>
+        <v>1.897741215792105</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.207484151502241</v>
+        <v>-6.210383332574321</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.308966850122998</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.63308577503439</v>
+        <v>-18.6326262083889</v>
       </c>
       <c r="F51" t="n">
-        <v>1.860614097644753</v>
+        <v>1.859895413635317</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.246483759279621</v>
+        <v>-6.249353606310501</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.469323213389483</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.10937047044359</v>
+        <v>-18.10918957718952</v>
       </c>
       <c r="F52" t="n">
-        <v>1.882956859026555</v>
+        <v>1.882321288133856</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.267237593429675</v>
+        <v>-6.269779877000471</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.6369594537706</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.71936950366292</v>
+        <v>-17.71944283876593</v>
       </c>
       <c r="F53" t="n">
-        <v>1.976512894431839</v>
+        <v>1.97567198525073</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.174444243095629</v>
+        <v>-6.177695432662128</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.817479992171122</v>
       </c>
       <c r="E54" t="n">
-        <v>-17.10300262993722</v>
+        <v>-17.10334486041791</v>
       </c>
       <c r="F54" t="n">
-        <v>2.035611209439107</v>
+        <v>2.034794745292332</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.156447808818515</v>
+        <v>-6.159381212938665</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.018724514270459</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.85430862863099</v>
+        <v>-16.8550908697297</v>
       </c>
       <c r="F55" t="n">
-        <v>1.992856844387936</v>
+        <v>1.992822621339867</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.386837368415016</v>
+        <v>-6.389565434246754</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.236093357849838</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.3037868993889</v>
+        <v>-16.30364511818976</v>
       </c>
       <c r="F56" t="n">
-        <v>2.019184146366273</v>
+        <v>2.018548575473574</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.254736402870973</v>
+        <v>-6.257459579695845</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.471014019765278</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.20768369140595</v>
+        <v>-16.20779613856389</v>
       </c>
       <c r="F57" t="n">
-        <v>2.06389411416421</v>
+        <v>2.063410102484385</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.413189115427687</v>
+        <v>-6.416381636911782</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.72824917154026</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.95395890203367</v>
+        <v>-15.95477047717358</v>
       </c>
       <c r="F58" t="n">
-        <v>1.933743862360067</v>
+        <v>1.933333185783246</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.575748593752609</v>
+        <v>-6.578383768453876</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.000335923075387</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.6855279800057</v>
+        <v>-15.68695557001084</v>
       </c>
       <c r="F59" t="n">
-        <v>1.998796987731237</v>
+        <v>1.998484091291755</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.372977033947311</v>
+        <v>-6.375568207586777</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.281673130909041</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.42628839088754</v>
+        <v>-15.42801421031156</v>
       </c>
       <c r="F60" t="n">
-        <v>2.069555584116098</v>
+        <v>2.069492027026827</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.408368554656909</v>
+        <v>-6.411174844598518</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.573747927200142</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.27294957951362</v>
+        <v>-15.27412783016854</v>
       </c>
       <c r="F61" t="n">
-        <v>2.006560730635898</v>
+        <v>2.006736734883107</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.261273005052039</v>
+        <v>-6.264856647085487</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.869228936135467</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.21598776050719</v>
+        <v>-15.21699978492864</v>
       </c>
       <c r="F62" t="n">
-        <v>2.027373232868355</v>
+        <v>2.027153227559344</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.34675240111318</v>
+        <v>-6.350272486057358</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.159135945547911</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.12547757637999</v>
+        <v>-15.12732562097569</v>
       </c>
       <c r="F63" t="n">
-        <v>1.992015935206826</v>
+        <v>1.991859486987085</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.410637053843158</v>
+        <v>-6.4141033597118</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.443919894313622</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.17166891325861</v>
+        <v>-15.17271516072813</v>
       </c>
       <c r="F64" t="n">
-        <v>1.842128762680948</v>
+        <v>1.841923424392537</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.399851904694743</v>
+        <v>-6.403767999195142</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.717454922205027</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.18045445859845</v>
+        <v>-15.18256650956496</v>
       </c>
       <c r="F65" t="n">
-        <v>1.846646205025977</v>
+        <v>1.846347975607096</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.496512459460519</v>
+        <v>-6.500555668139457</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.967152030995479</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.17577567902682</v>
+        <v>-15.1773450502311</v>
       </c>
       <c r="F66" t="n">
-        <v>1.898059001238455</v>
+        <v>1.897731437778372</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.416210521671441</v>
+        <v>-6.420493291686858</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.190867470581123</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.04139643628279</v>
+        <v>-15.0435671553317</v>
       </c>
       <c r="F67" t="n">
-        <v>1.710487363782396</v>
+        <v>1.710443362720594</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.214734548685875</v>
+        <v>-6.219281325072107</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.384081719741083</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.14601629422791</v>
+        <v>-15.14796211896094</v>
       </c>
       <c r="F68" t="n">
-        <v>1.678254141508826</v>
+        <v>1.678131916337153</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.337292172825699</v>
+        <v>-6.34202962047974</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.533033776343517</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.04888150579604</v>
+        <v>-15.05090555463894</v>
       </c>
       <c r="F69" t="n">
-        <v>1.665948511224801</v>
+        <v>1.665513389613645</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.117751319466883</v>
+        <v>-6.12352523657671</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.634776009160396</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.08606240301893</v>
+        <v>-15.08865846566526</v>
       </c>
       <c r="F70" t="n">
-        <v>1.546862081960486</v>
+        <v>1.546818080898684</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.093423621297115</v>
+        <v>-6.099177982379474</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.689628304079145</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.09751245710124</v>
+        <v>-15.09988851443856</v>
       </c>
       <c r="F71" t="n">
-        <v>1.447854803898592</v>
+        <v>1.447654354617048</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.06858257740632</v>
+        <v>-6.074703614003697</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.687182142229968</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.20691865276906</v>
+        <v>-15.20915292890724</v>
       </c>
       <c r="F72" t="n">
-        <v>1.364893246373912</v>
+        <v>1.364648796030566</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.924757773395416</v>
+        <v>-5.931133038349873</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.626529588229706</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.32716377666084</v>
+        <v>-15.32918293649687</v>
       </c>
       <c r="F73" t="n">
-        <v>1.286493132256064</v>
+        <v>1.286297571981387</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.071784876904149</v>
+        <v>-6.077529459972775</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.516285015031057</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.46408041396879</v>
+        <v>-15.46571823126921</v>
       </c>
       <c r="F74" t="n">
-        <v>1.168668066763414</v>
+        <v>1.168115608987452</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.973334945625083</v>
+        <v>-5.97904530564564</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.35339393908677</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.69380506863139</v>
+        <v>-15.69564333521335</v>
       </c>
       <c r="F75" t="n">
-        <v>1.095372075814625</v>
+        <v>1.095802308418913</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.006541080265169</v>
+        <v>-6.01232477538873</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.141230182718301</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.71650961652134</v>
+        <v>-15.71859722245352</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9103280549087609</v>
+        <v>0.9106458403551104</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.114827693360469</v>
+        <v>-6.120899839889177</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-8.893908476149655</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.7865006388281</v>
+        <v>-15.78815801215598</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7491766105615104</v>
+        <v>0.7492255006301796</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.033469730088137</v>
+        <v>-6.040045444324138</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-8.614279440707792</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.94106659092561</v>
+        <v>-15.94267507418483</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7620591436558313</v>
+        <v>0.7618000262918848</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.009694489694329</v>
+        <v>-6.016201757834193</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.305641462456444</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.05161681420029</v>
+        <v>-16.0536701970844</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4848084532399515</v>
+        <v>0.4849746794734266</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.029040289866712</v>
+        <v>-6.035503556944773</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-7.982444916047157</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.54720077327886</v>
+        <v>-16.54865280831834</v>
       </c>
       <c r="F80" t="n">
-        <v>0.4704494400718223</v>
+        <v>0.4704396620580885</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.961567106096418</v>
+        <v>-5.967644141631994</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-7.650614930057017</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.05863978162683</v>
+        <v>-17.0599304794397</v>
       </c>
       <c r="F81" t="n">
-        <v>0.298190172122941</v>
+        <v>0.2982243951710094</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.036163572871807</v>
+        <v>-6.042646395977337</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-7.312555045892633</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.48224778161068</v>
+        <v>-17.48332825212827</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.01610941233042025</v>
+        <v>-0.0161925254471578</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.074439607632884</v>
+        <v>-6.081494444541843</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.981771000276462</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.98988314261619</v>
+        <v>-17.99079249789344</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.02006461888575444</v>
+        <v>-0.01994728272094848</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.098107289875619</v>
+        <v>-6.104922565448099</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.66716652579043</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.77815238678949</v>
+        <v>-18.77930619241008</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1130437514807429</v>
+        <v>-0.1133370918927578</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.094934324418992</v>
+        <v>-6.101749599991471</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.371403062776115</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.4616208797636</v>
+        <v>-19.46331247613955</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.2788886424202318</v>
+        <v>-0.2789033094408325</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.184075586623452</v>
+        <v>-6.190739302983057</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.107263164827711</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.13201127936871</v>
+        <v>-20.13288641159789</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.4075086350750303</v>
+        <v>-0.4080610928509916</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.413638904059443</v>
+        <v>-6.420199951274843</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-5.886054525248893</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.87855284993289</v>
+        <v>-20.87965287647795</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5028247129524041</v>
+        <v>-0.5032842795978941</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.744624668949585</v>
+        <v>-6.750711482498894</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-5.708622631764242</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.70728351493678</v>
+        <v>-21.70827109432389</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6228400535214322</v>
+        <v>-0.6235049584553326</v>
       </c>
       <c r="G88" t="n">
-        <v>-6.997200541708145</v>
+        <v>-7.003541583614534</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-5.582592766937496</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.70081282341063</v>
+        <v>-22.7015412854338</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8488246179308419</v>
+        <v>-0.8492890735831988</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.041974066595352</v>
+        <v>-7.04855466983822</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-5.515870018566719</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.78162557147952</v>
+        <v>-23.78195802394647</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.116282627592291</v>
+        <v>-1.116722638210313</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.429310524633556</v>
+        <v>-7.435539119382006</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.501422465165816</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.0140073104365</v>
+        <v>-25.01450110013006</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.07733190988358</v>
+        <v>-1.077478580089587</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.786452476261693</v>
+        <v>-7.79262240292774</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.536798425294411</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.26635575343797</v>
+        <v>-26.26744600196929</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.305066738751345</v>
+        <v>-1.305599640499838</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.098258667212928</v>
+        <v>-8.103529016615463</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-5.623378910852028</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.54800890359972</v>
+        <v>-27.54862247396152</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.567117506817986</v>
+        <v>-1.567410847230001</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.42149535621901</v>
+        <v>-8.426188802811248</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-5.746996974764201</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.0389311036929</v>
+        <v>-29.03948356146887</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.843893963567775</v>
+        <v>-1.844148191924855</v>
       </c>
       <c r="G94" t="n">
-        <v>-8.75390871111429</v>
+        <v>-8.758377263390651</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-5.899617300491649</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.64873195025855</v>
+        <v>-30.64976841971434</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.118142803767369</v>
+        <v>-2.118749040618867</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.070696800062912</v>
+        <v>-9.075126240284337</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-6.077519062268524</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.47866766451735</v>
+        <v>-32.47999014087485</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.157440640963631</v>
+        <v>-2.157660646272642</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.434634471236061</v>
+        <v>-9.43896124231328</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-6.263642933311816</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.19125743595646</v>
+        <v>-34.19291969829121</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.520072947303314</v>
+        <v>-2.520410288777131</v>
       </c>
       <c r="G97" t="n">
-        <v>-9.840016253620048</v>
+        <v>-9.843727009832035</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-6.443831324108648</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.17907140446511</v>
+        <v>-36.18099767317067</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.912195743064227</v>
+        <v>-2.913007318204135</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.30600705413318</v>
+        <v>-10.31006004082585</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-6.610744033824061</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.2452194854989</v>
+        <v>-38.24735598149974</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.17985420200722</v>
+        <v>-3.180768446291333</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.66943626859217</v>
+        <v>-10.6733474740857</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-6.747715329608879</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.44588125696556</v>
+        <v>-40.44742373863207</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.544275884860193</v>
+        <v>-3.544965234828428</v>
       </c>
       <c r="G100" t="n">
-        <v>-10.82736096840726</v>
+        <v>-10.83205930400636</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-6.840532086444861</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.35385774333749</v>
+        <v>-42.35535377943876</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.999251752902165</v>
+        <v>-4.00046422660516</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.10741794876474</v>
+        <v>-11.11191583508231</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-6.882677729261362</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.58254819117217</v>
+        <v>-44.58500002811592</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.224864752789689</v>
+        <v>-4.226170117623155</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.24854890999198</v>
+        <v>-11.252993017234</v>
       </c>
     </row>
   </sheetData>
